--- a/target/classes/br/com/rsinet/appium/tdd/testdata/TestData.xlsx
+++ b/target/classes/br/com/rsinet/appium/tdd/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilker.nogueira\eclipse-workspace-automacao\avaliacao-automacao-tdd-appium\src\main\java\br\com\rsinet\appium\tdd\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB0701E-4697-427F-9E7F-89C82E1330AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CBA21-2B4F-4BAA-9E0F-C19F59E4D712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="1350" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{8A0BD1D9-DBE4-467F-9B03-07923CE60D62}"/>
   </bookViews>
@@ -283,7 +283,7 @@
     <t>REGISTER</t>
   </si>
   <si>
-    <t>Wilker000036</t>
+    <t>Wilker000073</t>
   </si>
 </sst>
 </file>

--- a/target/classes/br/com/rsinet/appium/tdd/testdata/TestData.xlsx
+++ b/target/classes/br/com/rsinet/appium/tdd/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilker.nogueira\eclipse-workspace-automacao\avaliacao-automacao-tdd-appium\src\main\java\br\com\rsinet\appium\tdd\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CBA21-2B4F-4BAA-9E0F-C19F59E4D712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA805F56-F116-4431-A13A-18E16A0BF127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="1350" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{8A0BD1D9-DBE4-467F-9B03-07923CE60D62}"/>
   </bookViews>
@@ -283,7 +283,7 @@
     <t>REGISTER</t>
   </si>
   <si>
-    <t>Wilker000073</t>
+    <t>Wilker000078</t>
   </si>
 </sst>
 </file>

--- a/target/classes/br/com/rsinet/appium/tdd/testdata/TestData.xlsx
+++ b/target/classes/br/com/rsinet/appium/tdd/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilker.nogueira\eclipse-workspace-automacao\avaliacao-automacao-tdd-appium\src\main\java\br\com\rsinet\appium\tdd\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA805F56-F116-4431-A13A-18E16A0BF127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61286A55-1E2F-4FB9-B442-C8AD2E424095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="1350" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{8A0BD1D9-DBE4-467F-9B03-07923CE60D62}"/>
   </bookViews>
@@ -283,7 +283,7 @@
     <t>REGISTER</t>
   </si>
   <si>
-    <t>Wilker000078</t>
+    <t>Wil0001</t>
   </si>
 </sst>
 </file>
